--- a/Sprint 5/Lab 5 Analysis.xlsx
+++ b/Sprint 5/Lab 5 Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C00BC93E-0EAB-4A8F-B4DC-4EDED9C30858}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25982663-48FB-415C-B4A7-96C0C2B643D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1991,12 +1991,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Genetic</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Algorithm vs. Tabu Efficiency (Logarithmic)</a:t>
+              <a:t>SA vs. PSO Efficiency (Logarithmic)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7766,7 +7762,7 @@
   <dimension ref="A2:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8544,8 +8540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA4FE76-ECFC-4CD9-B2F6-427E96ACFFF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
